--- a/biology/Zoologie/Allopsocus/Allopsocus.xlsx
+++ b/biology/Zoologie/Allopsocus/Allopsocus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Allopsocus est un genre d'insectes psocoptères de la famille des Pseudocaeciliidae. 
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'identité d'Allopsocus est longtemps restée une énigme car il n'en restait que l'extrémité des ailes de l'holotype. Après découverte de nouveau matériel, le genre a pu être redécrit d'une manière complète[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'identité d'Allopsocus est longtemps restée une énigme car il n'en restait que l'extrémité des ailes de l'holotype. Après découverte de nouveau matériel, le genre a pu être redécrit d'une manière complète.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon  Species File              (23 janvier 2021)[1] :
-Allopsocus marginalis Banks, 1920 - espèce type[3]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon  Species File              (23 janvier 2021) :
+Allopsocus marginalis Banks, 1920 - espèce type
 Allopsocus medialis New, 1977</t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Banks, Nathan, 1868-1953, « New neuropteroid insects », Bulletin of the Museum of Comparative Zoology, Cambridge, Inconnu, vol. 64, no 3,‎ 1920, p. 297-362 (ISSN 0027-4100 et 1938-2987, OCLC 1641426, DOI 10.5962/BHL.TITLE.28705, lire en ligne)</t>
         </is>
